--- a/data/BetasRECORD.xlsx
+++ b/data/BetasRECORD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D411587-BD55-4175-8E91-A570B54EDFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6460212A-7F01-4814-B485-072CEAA92CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" activeTab="5" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
+    <workbookView xWindow="3135" yWindow="705" windowWidth="13358" windowHeight="7823" firstSheet="1" activeTab="7" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="0418" sheetId="7" r:id="rId7"/>
+    <sheet name="0418origin" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="37">
   <si>
     <t>Wetland</t>
   </si>
@@ -221,10 +224,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,21 +601,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -1455,18 +1458,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C405D89-2650-4B36-A424-B6ECC6133C28}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J21"/>
+      <selection activeCell="K2" sqref="K2:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="9.06640625" style="5"/>
+    <col min="5" max="5" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1479,7 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
@@ -1492,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1508,7 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>-1.7805800000000001</v>
       </c>
       <c r="F2" t="s">
@@ -1523,8 +1526,11 @@
       <c r="J2">
         <v>-1.7234400000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2">
+        <v>-1.7234400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1543,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>7.5826399999999999E-3</v>
       </c>
       <c r="F3" t="s">
@@ -1555,8 +1561,11 @@
       <c r="J3">
         <v>7.6045000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3">
+        <v>7.6045000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1569,7 +1578,7 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>-0.36558000000000002</v>
       </c>
       <c r="F4" t="s">
@@ -1587,8 +1596,11 @@
       <c r="J4">
         <v>-0.34421499999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K4">
+        <v>-0.34421499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1613,7 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>-0.409302</v>
       </c>
       <c r="F5" t="s">
@@ -1619,8 +1631,11 @@
       <c r="J5">
         <v>-0.38359300000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <v>-0.38359300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1633,7 +1648,7 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>-1.1916800000000001</v>
       </c>
       <c r="F6" t="s">
@@ -1651,8 +1666,11 @@
       <c r="J6">
         <v>-1.6910499999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K6">
+        <v>-1.6910499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1683,7 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.72127300000000005</v>
       </c>
       <c r="F7" t="s">
@@ -1683,8 +1701,11 @@
       <c r="J7">
         <v>0.76810100000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K7">
+        <v>0.76810100000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1718,7 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>-1.5067800000000001E-3</v>
       </c>
       <c r="F8" t="s">
@@ -1715,8 +1736,11 @@
       <c r="J8">
         <v>-1.28268E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K8">
+        <v>-1.28268E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1753,7 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.86232699999999995</v>
       </c>
       <c r="F9" t="s">
@@ -1747,8 +1771,11 @@
       <c r="J9">
         <v>1.0522400000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K9">
+        <v>1.0522400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1788,7 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.62839999999999996</v>
       </c>
       <c r="F10" t="s">
@@ -1779,8 +1806,11 @@
       <c r="J10">
         <v>0.99044399999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K10">
+        <v>0.99044399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1793,7 +1823,7 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.48426400000000003</v>
       </c>
       <c r="F11" t="s">
@@ -1811,8 +1841,11 @@
       <c r="J11">
         <v>0.73651200000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K11">
+        <v>0.73651200000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1825,7 +1858,7 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.599522</v>
       </c>
       <c r="F12" t="s">
@@ -1843,8 +1876,11 @@
       <c r="J12">
         <v>0.805311</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K12">
+        <v>0.805311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1857,7 +1893,7 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>2.09002</v>
       </c>
       <c r="F13" t="s">
@@ -1875,8 +1911,11 @@
       <c r="J13">
         <v>2.8864399999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K13">
+        <v>2.8864399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1889,7 +1928,7 @@
       <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.80421900000000002</v>
       </c>
       <c r="F14" t="s">
@@ -1907,8 +1946,11 @@
       <c r="J14">
         <v>0.81499699999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K14">
+        <v>0.81499699999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1921,7 +1963,7 @@
       <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>0.285991</v>
       </c>
       <c r="F15" t="s">
@@ -1939,8 +1981,11 @@
       <c r="J15">
         <v>0.117802</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K15">
+        <v>0.117802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1953,7 +1998,7 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>0.56927300000000003</v>
       </c>
       <c r="F16" t="s">
@@ -1971,8 +2016,11 @@
       <c r="J16">
         <v>0.65351400000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K16">
+        <v>0.65351400000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2042,11 @@
       <c r="J17">
         <v>0.382075</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K17">
+        <v>0.382075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2005,7 +2056,7 @@
       <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>8.5736999999999994E-2</v>
       </c>
       <c r="F18" t="s">
@@ -2023,8 +2074,11 @@
       <c r="J18">
         <v>0.60575400000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K18">
+        <v>0.60575400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2046,8 +2100,11 @@
       <c r="J19">
         <v>1.3437699999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K19">
+        <v>1.3437699999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2072,8 +2129,11 @@
       <c r="J20">
         <v>0.55304299999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K20">
+        <v>0.55304299999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2098,9 +2158,12 @@
       <c r="J21">
         <v>7.9887E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E22" s="5">
+      <c r="K21">
+        <v>7.9887E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E22" s="4">
         <v>0</v>
       </c>
       <c r="H22">
@@ -2109,8 +2172,11 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G23">
         <v>0</v>
       </c>
@@ -2118,28 +2184,43 @@
         <v>7.9887E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>0</v>
       </c>
     </row>
@@ -2405,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA146D5C-78F8-4026-A853-508D89375AB0}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2432,6 +2513,9 @@
       <c r="B2">
         <v>-1.7234400000000001</v>
       </c>
+      <c r="C2">
+        <v>-1.7234400000000001</v>
+      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -2446,6 +2530,9 @@
       <c r="B3">
         <v>7.6045000000000001E-3</v>
       </c>
+      <c r="C3">
+        <v>7.6045000000000001E-3</v>
+      </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
@@ -2460,6 +2547,9 @@
       <c r="B4">
         <v>-0.34421499999999999</v>
       </c>
+      <c r="C4">
+        <v>-0.34421499999999999</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -2474,6 +2564,9 @@
       <c r="B5">
         <v>-0.38359300000000002</v>
       </c>
+      <c r="C5">
+        <v>-0.38359300000000002</v>
+      </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
@@ -2488,6 +2581,9 @@
       <c r="B6">
         <v>-1.6910499999999999</v>
       </c>
+      <c r="C6">
+        <v>-1.6910499999999999</v>
+      </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -2502,6 +2598,9 @@
       <c r="B7">
         <v>0.76810100000000003</v>
       </c>
+      <c r="C7">
+        <v>0.76810100000000003</v>
+      </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
@@ -2516,6 +2615,9 @@
       <c r="B8">
         <v>-1.28268E-3</v>
       </c>
+      <c r="C8">
+        <v>-1.28268E-3</v>
+      </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -2530,6 +2632,9 @@
       <c r="B9">
         <v>1.0522400000000001</v>
       </c>
+      <c r="C9">
+        <v>1.0522400000000001</v>
+      </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
@@ -2544,6 +2649,9 @@
       <c r="B10">
         <v>0.99044399999999999</v>
       </c>
+      <c r="C10">
+        <v>0.99044399999999999</v>
+      </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
@@ -2558,6 +2666,9 @@
       <c r="B11">
         <v>0.73651200000000006</v>
       </c>
+      <c r="C11">
+        <v>0.73651200000000006</v>
+      </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
@@ -2572,6 +2683,9 @@
       <c r="B12">
         <v>0.805311</v>
       </c>
+      <c r="C12">
+        <v>0.805311</v>
+      </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
@@ -2586,6 +2700,9 @@
       <c r="B13">
         <v>2.8864399999999999</v>
       </c>
+      <c r="C13">
+        <v>2.8864399999999999</v>
+      </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
@@ -2600,6 +2717,9 @@
       <c r="B14">
         <v>0.81499699999999997</v>
       </c>
+      <c r="C14">
+        <v>0.81499699999999997</v>
+      </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
@@ -2614,6 +2734,9 @@
       <c r="B15">
         <v>0.117802</v>
       </c>
+      <c r="C15">
+        <v>0.117802</v>
+      </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
@@ -2628,6 +2751,9 @@
       <c r="B16">
         <v>0.65351400000000004</v>
       </c>
+      <c r="C16">
+        <v>0.65351400000000004</v>
+      </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
@@ -2642,6 +2768,9 @@
       <c r="B17">
         <v>0.382075</v>
       </c>
+      <c r="C17">
+        <v>0.382075</v>
+      </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
@@ -2656,6 +2785,9 @@
       <c r="B18">
         <v>0.60575400000000001</v>
       </c>
+      <c r="C18">
+        <v>0.60575400000000001</v>
+      </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
@@ -2670,6 +2802,9 @@
       <c r="B19">
         <v>1.3437699999999999</v>
       </c>
+      <c r="C19">
+        <v>1.3437699999999999</v>
+      </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
@@ -2684,6 +2819,9 @@
       <c r="B20">
         <v>0.55304299999999995</v>
       </c>
+      <c r="C20">
+        <v>0.55304299999999995</v>
+      </c>
       <c r="D20" t="s">
         <v>35</v>
       </c>
@@ -2698,6 +2836,9 @@
       <c r="B21">
         <v>7.9887E-2</v>
       </c>
+      <c r="C21">
+        <v>7.9887E-2</v>
+      </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
@@ -2716,4 +2857,350 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21320343-36A8-4D1B-AF5C-06CC2081F235}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1.81589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.8002399999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.45073000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.70748699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-2.7183099999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4.62202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-9.45855E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.60821700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.76716600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.57772699999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.57102399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2.19191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.36686000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>3.3585799999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.26479999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.115993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.49864199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1.49624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0.96174800000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0.10423399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E29759-F941-46C2-B9C2-D79E9B0F7103}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1.8871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.8764699999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.49374299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.78538600000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-2.3162400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4.5921599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-9.7439E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.41422300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.42657600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.34163300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.40318199999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>1.5337499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.37328299999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0.15020500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.21812699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>9.6075199999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE55736-5E82-4FDE-AD01-B5D1EE3B2104}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/BetasRECORD.xlsx
+++ b/data/BetasRECORD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6460212A-7F01-4814-B485-072CEAA92CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F15F2D9-0DB0-4D8C-9C06-4A41542504A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="705" windowWidth="13358" windowHeight="7823" firstSheet="1" activeTab="7" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="3" activeTab="8" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="0418" sheetId="7" r:id="rId7"/>
     <sheet name="0418origin" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
+    <sheet name="0420info" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="38">
   <si>
     <t>Wetland</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>fscontrl</t>
+  </si>
+  <si>
+    <t>fsinfo</t>
   </si>
 </sst>
 </file>
@@ -2864,7 +2867,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:A21"/>
+      <selection activeCell="A17" sqref="A17:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3046,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E29759-F941-46C2-B9C2-D79E9B0F7103}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3195,12 +3198,191 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE55736-5E82-4FDE-AD01-B5D1EE3B2104}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1.8102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.7961399999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.435556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.69518999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-2.9358900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4.9097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-9.4429900000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.61007699999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.80968399999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.56106500000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.58206800000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2.3253200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.35242699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>3.6543399999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.27340100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>8.3414600000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.50495999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1.44682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0.44789000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>0.92747900000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.107409</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/BetasRECORD.xlsx
+++ b/data/BetasRECORD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F15F2D9-0DB0-4D8C-9C06-4A41542504A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E536A04-4C82-4701-9CF2-B8B85C908C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="3" activeTab="8" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="3" activeTab="10" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="0418" sheetId="7" r:id="rId7"/>
     <sheet name="0418origin" sheetId="8" r:id="rId8"/>
     <sheet name="0420info" sheetId="9" r:id="rId9"/>
+    <sheet name="0422infoconcern" sheetId="10" r:id="rId10"/>
+    <sheet name="0422" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="39">
   <si>
     <t>Wetland</t>
   </si>
@@ -155,6 +157,9 @@
   </si>
   <si>
     <t>fsinfo</t>
+  </si>
+  <si>
+    <t>fsconcern</t>
   </si>
 </sst>
 </file>
@@ -725,6 +730,372 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF67C33-E8DB-4941-A045-83505248269E}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1.93218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4.1593699999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.45257199999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.73001300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-2.5188700000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4.4795999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1.0058199999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.48338799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.55849599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.399474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.40051100000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2.1241300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.39787699999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>6.9451200000000005E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.29111199999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>9.7219700000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.60193099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1.1851100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>-2.6914799999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>0.70499199999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>0.33781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>-1.4105899999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0.127801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE6C88-C8AD-4932-9CA6-3D77BD3F17D8}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-2.0477099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4.3393499999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.54487099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.86465499999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-2.32673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4.6163800000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-9.98966E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.43883800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.433975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.35965200000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.40757500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>1.57152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.36381200000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>9.7133399999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.205126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>-1.6253900000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0.12689900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9C3245-6ED4-4877-8347-928330D8A4D3}">
   <dimension ref="A1:D22"/>
@@ -3200,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE55736-5E82-4FDE-AD01-B5D1EE3B2104}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/BetasRECORD.xlsx
+++ b/data/BetasRECORD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E536A04-4C82-4701-9CF2-B8B85C908C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFAEA0E-D442-44D8-8862-6AC18B76DF30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="3" activeTab="10" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="3" activeTab="11" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="0420info" sheetId="9" r:id="rId9"/>
     <sheet name="0422infoconcern" sheetId="10" r:id="rId10"/>
     <sheet name="0422" sheetId="11" r:id="rId11"/>
+    <sheet name="0501" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="40">
   <si>
     <t>Wetland</t>
   </si>
@@ -160,6 +161,9 @@
   </si>
   <si>
     <t>fsconcern</t>
+  </si>
+  <si>
+    <t>fsso</t>
   </si>
 </sst>
 </file>
@@ -941,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE6C88-C8AD-4932-9CA6-3D77BD3F17D8}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1089,6 +1093,197 @@
       </c>
       <c r="B18">
         <v>0.12689900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA43877-F6AA-44BE-AEED-470CB2666931}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1.9403300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4.1693399999999997E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.46346300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.73680599999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-2.31406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4.2263299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1.01935E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.45755899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.49524299999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.38294600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.35669099999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2.0113300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.40753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>7.3363800000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.28962500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>0.35743799999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.601433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1.2504299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>0.49267499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-1.45563E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.12864</v>
       </c>
     </row>
   </sheetData>
@@ -3572,7 +3767,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/BetasRECORD.xlsx
+++ b/data/BetasRECORD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFAEA0E-D442-44D8-8862-6AC18B76DF30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97B0973-D74B-407A-A541-233018F7C1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="3" activeTab="11" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="13357" windowHeight="7822" firstSheet="8" activeTab="11" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="0420info" sheetId="9" r:id="rId9"/>
     <sheet name="0422infoconcern" sheetId="10" r:id="rId10"/>
     <sheet name="0422" sheetId="11" r:id="rId11"/>
-    <sheet name="0501" sheetId="12" r:id="rId12"/>
+    <sheet name="onlyattributes" sheetId="13" r:id="rId12"/>
+    <sheet name="0501" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="40">
   <si>
     <t>Wetland</t>
   </si>
@@ -945,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE6C88-C8AD-4932-9CA6-3D77BD3F17D8}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1101,11 +1102,90 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148B1116-5DE0-47E1-9E59-9BFD83CA9448}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-2.0032800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4.2469200000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.52337400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.83788499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.19498199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>-1.5631799999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.13234699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA43877-F6AA-44BE-AEED-470CB2666931}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/BetasRECORD.xlsx
+++ b/data/BetasRECORD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97B0973-D74B-407A-A541-233018F7C1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E76A3-6697-4DCC-B8DA-91283A33063D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="13357" windowHeight="7822" firstSheet="8" activeTab="11" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="9" activeTab="11" xr2:uid="{FE760CC6-E823-4333-9881-A4E63E549399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="0418" sheetId="7" r:id="rId7"/>
     <sheet name="0418origin" sheetId="8" r:id="rId8"/>
-    <sheet name="0420info" sheetId="9" r:id="rId9"/>
+    <sheet name="0422_update" sheetId="9" r:id="rId9"/>
     <sheet name="0422infoconcern" sheetId="10" r:id="rId10"/>
-    <sheet name="0422" sheetId="11" r:id="rId11"/>
+    <sheet name="0422_origin" sheetId="11" r:id="rId11"/>
     <sheet name="onlyattributes" sheetId="13" r:id="rId12"/>
     <sheet name="0501" sheetId="12" r:id="rId13"/>
   </sheets>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="40">
   <si>
     <t>Wetland</t>
   </si>
@@ -944,10 +944,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDE6C88-C8AD-4932-9CA6-3D77BD3F17D8}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-2.0477099999999999</v>
+        <v>-1.8871</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -973,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>4.3393499999999996E-3</v>
+        <v>3.8764699999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.54487099999999999</v>
+        <v>-0.49374299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -989,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.86465499999999995</v>
+        <v>-0.78538600000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -997,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-2.32673</v>
+        <v>-2.3162400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1005,7 +1005,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.6163800000000004</v>
+        <v>4.5921599999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1013,7 +1013,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-9.98966E-4</v>
+        <v>-9.7439E-4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -1021,7 +1021,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.43883800000000001</v>
+        <v>0.41422300000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1029,7 +1029,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.433975</v>
+        <v>0.42657600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -1037,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.35965200000000003</v>
+        <v>0.34163300000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -1045,7 +1045,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.40757500000000002</v>
+        <v>0.40318199999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -1053,7 +1053,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1.57152</v>
+        <v>1.5337499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1061,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.36381200000000002</v>
+        <v>0.37328299999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -1069,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>9.7133399999999995E-2</v>
+        <v>0.15020500000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -1077,23 +1077,15 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>0.205126</v>
+        <v>0.21812699999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>-1.6253900000000001E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>0.12689900000000001</v>
+        <v>9.6075199999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1103,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148B1116-5DE0-47E1-9E59-9BFD83CA9448}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1124,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-2.0032800000000002</v>
+        <v>-1.8534999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1132,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>4.2469200000000004E-3</v>
+        <v>3.8091900000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1140,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.52337400000000001</v>
+        <v>-0.48236600000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1148,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.83788499999999999</v>
+        <v>-0.76758899999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -1156,23 +1148,15 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.19498199999999999</v>
+        <v>0.214947</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>-1.5631799999999999E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>0.13234699999999999</v>
+        <v>9.8138199999999995E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3844,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE55736-5E82-4FDE-AD01-B5D1EE3B2104}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3865,7 +3849,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.8102</v>
+        <v>-1.8145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -3873,7 +3857,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.7961399999999999E-3</v>
+        <v>3.8001900000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -3881,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.435556</v>
+        <v>-0.44973299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -3889,7 +3873,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.69518999999999997</v>
+        <v>-0.70554300000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -3897,7 +3881,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-2.9358900000000001</v>
+        <v>-2.7305299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -3905,7 +3889,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.9097</v>
+        <v>4.6631299999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -3913,7 +3897,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-9.4429900000000001E-4</v>
+        <v>-9.6677299999999998E-4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -3921,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.61007699999999998</v>
+        <v>0.604321</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -3929,7 +3913,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.80968399999999996</v>
+        <v>0.76299300000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -3937,7 +3921,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.56106500000000004</v>
+        <v>0.56897600000000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -3945,7 +3929,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.58206800000000003</v>
+        <v>0.56238999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -3953,7 +3937,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>2.3253200000000001</v>
+        <v>2.2007400000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -3961,7 +3945,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.35242699999999999</v>
+        <v>0.35938599999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -3969,7 +3953,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>3.6543399999999997E-2</v>
+        <v>3.2910099999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -3977,7 +3961,7 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>0.27340100000000001</v>
+        <v>0.26005099999999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -3985,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>8.3414600000000005E-2</v>
+        <v>8.9538400000000004E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -3993,7 +3977,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.50495999999999996</v>
+        <v>0.50294000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -4001,7 +3985,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.44682</v>
+        <v>1.4916400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -4009,23 +3993,15 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.44789000000000001</v>
+        <v>1.0802700000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.92747900000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>0.107409</v>
+        <v>0.105408</v>
       </c>
     </row>
   </sheetData>
